--- a/data/case1/5/P1_14.xlsx
+++ b/data/case1/5/P1_14.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.068556982683489309</v>
+        <v>0.15874635842922658</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0099999995966086885</v>
+        <v>-0.047301588604405254</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0089999996008760519</v>
+        <v>-0.049544986139475</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.28399198840885731</v>
+        <v>0.28398814138762063</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.065794641335186199</v>
+        <v>-0.0059999991275603293</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0059999996025155156</v>
+        <v>-0.0059999990921539847</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.019999999521544964</v>
+        <v>-0.019999998943845299</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.019999999521462364</v>
+        <v>-0.019999998935734453</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.062227117699534595</v>
+        <v>-0.0059999990726691266</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0059999995997941369</v>
+        <v>-0.0059999990657573221</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.004499999608256644</v>
+        <v>-0.0044999990804477363</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0059999995986750321</v>
+        <v>-0.005999999064228323</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0059999995952306762</v>
+        <v>-0.0059999990595578367</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.011999999559795249</v>
+        <v>-0.011999998996443217</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.014237090198504276</v>
+        <v>-0.0059999990587868979</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0059999995925719141</v>
+        <v>0.023367834197445703</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0059999995907755732</v>
+        <v>-0.0059999990558816663</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0089999995730449811</v>
+        <v>-0.008999999023942884</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0089999996020342365</v>
+        <v>-0.032484823775399629</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0089999995983820469</v>
+        <v>-0.0089999991013858249</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0089999995978260472</v>
+        <v>-0.0089999991003510971</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0089999995973952807</v>
+        <v>-0.008999999099604139</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0089999995971847824</v>
+        <v>-0.0089999990966127541</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.041999999400427868</v>
+        <v>-0.04199999873939575</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.041999999397117627</v>
+        <v>-0.041999998732640265</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0059999996004727052</v>
+        <v>-0.005999999089755903</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0059999995980386522</v>
+        <v>-0.0059999990849641804</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.01792102852153743</v>
+        <v>-0.0059999990637669143</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.011999999546530304</v>
+        <v>-0.011999998987850091</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.019999999497318566</v>
+        <v>-0.019999998898175164</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014999999521679186</v>
+        <v>-0.014999998940558257</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0209999994863308</v>
+        <v>-0.020999998877056392</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0059999995725190658</v>
+        <v>-0.0059999990322632257</v>
       </c>
     </row>
   </sheetData>
